--- a/server/excels/invoiceConsultant.xlsx
+++ b/server/excels/invoiceConsultant.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AF$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -105,27 +108,20 @@
     <t>پیشرفت فیزیکی</t>
   </si>
   <si>
-    <t>مبلغ ص و تایید شده تقسیم بر  مبلغ بر اساس آخرین تغییر مقادیر(سند)</t>
-  </si>
-  <si>
-    <t>مبلغ ص و تایید شده  کارفرما تقسیم بر  مبلغ بر اساس آخرین تغییر مقادیر(سند)</t>
-  </si>
-  <si>
-    <t>مبلغ ص و پرداخت شده تقسیم بر مبلغ بر اساس آخرین تغییر مقادیر(سند)</t>
+    <t>درصد پیشرفت ریالی تایید شده</t>
+  </si>
+  <si>
+    <t>درصد پیشرفت ریالی تایید شده کارفرما</t>
+  </si>
+  <si>
+    <t>درصد پیشرفت ریالی پرداخت شده</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -192,44 +188,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="dashDotDot">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashDotDot">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,11 +486,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="17" width="8.85546875" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="144" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -558,13 +538,13 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -603,17 +583,18 @@
       <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AF1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>